--- a/MålingerVinkel.xlsx
+++ b/MålingerVinkel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au729251_uni_au_dk/Documents/4. Semester/PRJ4/E4PRJ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au729035_uni_au_dk/Documents/Skrivebord/AU/E4/PRJ4/Git/E4PRJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B25806-551B-468E-8D47-1222E036F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B6B25806-551B-468E-8D47-1222E036F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C42D811-31F3-4619-9CA5-ACE09A24F8D6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F128C740-FC24-4E77-BABF-1A59CD64D281}"/>
+    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="11170" xr2:uid="{F128C740-FC24-4E77-BABF-1A59CD64D281}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -2249,15 +2249,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2605,15 +2605,15 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B16"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>18200</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>16300</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>15800</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15300</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>14200</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>13550</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>12700</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11600</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10600</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9520</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8600</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6600</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>-21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6250</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>-24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5800</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5050</v>
       </c>

--- a/MålingerVinkel.xlsx
+++ b/MålingerVinkel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au729035_uni_au_dk/Documents/Skrivebord/AU/E4/PRJ4/Git/E4PRJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B6B25806-551B-468E-8D47-1222E036F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C42D811-31F3-4619-9CA5-ACE09A24F8D6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{B6B25806-551B-468E-8D47-1222E036F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91EF42B2-8B4A-4490-A76C-9BCB44C9C89E}"/>
   <bookViews>
     <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="11170" xr2:uid="{F128C740-FC24-4E77-BABF-1A59CD64D281}"/>
   </bookViews>
@@ -586,37 +586,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -671,44 +641,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.4153059930008749"/>
-                  <c:y val="-2.8194444444444466E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -844,6 +778,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Sensor værdi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -950,6 +909,36 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Vinkel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> (grader)</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1028,37 +1017,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2249,15 +2207,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>195580</xdr:colOff>
+      <xdr:colOff>278130</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>500380</xdr:colOff>
+      <xdr:colOff>582930</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2605,7 +2563,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
